--- a/data/data-pollution/Schools_exceeding_LAEI_2016_2-modified.xlsx
+++ b/data/data-pollution/Schools_exceeding_LAEI_2016_2-modified.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vilmastasiute/Downloads/Project London data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\data\data-pollution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6FF711-0D49-764C-9E9F-9F01FAB16EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="EdubaseAllEstablishmentsLondon" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EdubaseAllEstablishmentsLondon!$A$1:$E$3243</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -160,11 +159,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +174,11 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -211,8 +215,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,8 +227,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,23 +320,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,23 +355,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,19 +530,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
